--- a/Dados/H_M_carac.xlsx
+++ b/Dados/H_M_carac.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pecorajr/Library/Mobile Documents/com~apple~CloudDocs/Documents/GitHub/Python/05_DS02_PPGOLD_Classification_atualizado_JG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pecorajr/Library/Mobile Documents/com~apple~CloudDocs/Documents/GitHub/PythonProject/Dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D39957A1-9E7B-BF47-8948-C7BB6A6D1CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A05ED1F-A443-7745-A1BD-D48F4375545E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -92,7 +92,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -115,27 +115,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -440,15 +426,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I601"/>
+  <dimension ref="A1:H601"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A471" workbookViewId="0">
-      <selection activeCell="J496" sqref="J496"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:S1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -473,9 +459,8 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>170.5191838331786</v>
       </c>
@@ -501,7 +486,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>177.87418951356861</v>
       </c>
@@ -527,7 +512,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>162.84403141984779</v>
       </c>
@@ -553,7 +538,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>162.85000298922921</v>
       </c>
@@ -579,7 +564,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>178.66723716683941</v>
       </c>
@@ -605,7 +590,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>167.26931662400091</v>
       </c>
@@ -631,7 +616,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>186.99339905154559</v>
       </c>
@@ -657,7 +642,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>154.1341777773527</v>
       </c>
@@ -683,7 +668,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>167.54660413175111</v>
       </c>
@@ -709,7 +694,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>169.8048448571549</v>
       </c>
@@ -735,7 +720,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>172.23880948356589</v>
       </c>
@@ -761,7 +746,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>160.05925516509939</v>
       </c>
@@ -787,7 +772,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>150.517543974831</v>
       </c>
@@ -813,7 +798,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>164.24493051582479</v>
       </c>
@@ -839,7 +824,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>188.69138615775489</v>
       </c>
@@ -16076,9 +16061,6 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I601">
-    <sortCondition ref="I2:I601"/>
-  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>